--- a/Chapter04-Convolutional-Neural-Networks/DeepConvolutional_Models-CaseStudies/cases studies.xlsx
+++ b/Chapter04-Convolutional-Neural-Networks/DeepConvolutional_Models-CaseStudies/cases studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI-learning\Deep-learning\Chapter04-Convolutional-Neural-Networks\DeepConvolutional_Models-CaseStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE174B8-267A-46F5-86C3-E2A59697DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993059FE-D2BE-4380-A0A7-88E478E9175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13800" xr2:uid="{CCDBED70-31EF-43E7-BAA9-99EBC844BBE9}"/>
+    <workbookView xWindow="-120" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{CCDBED70-31EF-43E7-BAA9-99EBC844BBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
   <si>
     <t>FC</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2260,6 +2260,69 @@
   </si>
   <si>
     <t>不如在每个局部感受野 （视觉窗口）中嵌入一个“微型网络”来学习更复杂的特征。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MobileNet的核心思想是： 既然手机的算力有限， 我们能不能把复杂的卷积操作拆解开， 用更少的计算量实现差不多的效果。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积层与卷积计算过程： MobileNet的精髓在于 深度可分离卷积 （Depthwise Separable Convolution)。 他将传统的卷积分成了两步处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 第一步： 逐通道卷积 Depthwise Convolution, DW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 第二步：逐点卷积 Pointwise Covolution , PW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">计算量： 为了让图片通过这一层网络， 计算机到底做多少次数学运算（加法 + 乘法) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">做法： 假设输入图片有RGB三个通道， 传统的卷积核会同时看RGB三个颜色， 比如kenel 3*3*3  * output 4*4*5 。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>而Depthwise Convolution(DW)卷积给每个通道配置一个专用的卷积核，R通道用R卷积核， B通道只用B卷积核， G通道只用G通道卷积核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的： 提取每个通道的空间特征，但不进行通道间的特征融合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用1*1大小的卷积核， 把第一步提取出的各个通道的特征图串起来， 进行融合并改变输出通道的数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算过程对比（公式简单化）：</t>
+  </si>
+  <si>
+    <t>假设：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k×k：卷积核的宽和高（例如 3x3）。</t>
+  </si>
+  <si>
+    <t>M：输入通道数。</t>
+  </si>
+  <si>
+    <t>N：输出通道数。</t>
+  </si>
+  <si>
+    <t>Hout×Wout：输出特征图的高和宽。</t>
+  </si>
+  <si>
+    <t>标准卷积计算量  = k*k*M*Hout*Wout*N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2272,7 +2335,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2444,6 +2507,26 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010409"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010409"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010409"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2553,7 +2636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2626,7 +2709,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2945,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B4D18A-B9B9-49DC-A5DA-C958C9AF2D39}">
-  <dimension ref="F1:V114"/>
+  <dimension ref="F1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -3916,17 +4005,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.4">
       <c r="G88" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.4">
       <c r="G89" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.4">
       <c r="G90" s="2" t="s">
         <v>76</v>
       </c>
@@ -3936,7 +4025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.4">
       <c r="G92" s="2" t="s">
         <v>78</v>
       </c>
@@ -4006,14 +4095,91 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F112" s="24"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F113" s="24"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F114" s="24"/>
+    <row r="112" spans="6:7" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="F112" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F113" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="6:13" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="F114" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F115" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G116" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G117" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G118" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F119" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G120" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F124" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F125" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="G126" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="F127" s="24"/>
+      <c r="G127" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="F128" s="24"/>
+      <c r="G128" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="F129" s="24"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F132" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Chapter04-Convolutional-Neural-Networks/DeepConvolutional_Models-CaseStudies/cases studies.xlsx
+++ b/Chapter04-Convolutional-Neural-Networks/DeepConvolutional_Models-CaseStudies/cases studies.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI-learning\Deep-learning\Chapter04-Convolutional-Neural-Networks\DeepConvolutional_Models-CaseStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993059FE-D2BE-4380-A0A7-88E478E9175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF426F9-837E-4E81-8528-67C36F046CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{CCDBED70-31EF-43E7-BAA9-99EBC844BBE9}"/>
+    <workbookView xWindow="-120" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{CCDBED70-31EF-43E7-BAA9-99EBC844BBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MobileNet V2 Full Architecture" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="206">
   <si>
     <t>FC</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2323,6 +2324,332 @@
   </si>
   <si>
     <t>标准卷积计算量  = k*k*M*Hout*Wout*N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正后的 MobileNet 计算量（深度可分离卷积）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同样基于输出尺寸， MobileNet的两部计算量如下： </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1， DW: 输出尺寸仍然为： Hout * Wout ,  但是一个卷积核只负责一个通道 k*k*1; 计算量为： k * k *  Hout * Wout * M </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,   PW: 使用 1*1 卷积核将M 变成 N； 计算量为： 1*1*M*Hout*Wout*N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计算量为：   k * k *  Hout * Wout * M  +  1*1*M*Hout*Wout*N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 比例关系（为什么它更轻量？）</t>
+  </si>
+  <si>
+    <t>我们将 MobileNet 的计算量除以标准卷积：</t>
+  </si>
+  <si>
+    <t>(Hout⋅Wout⋅M⋅k⋅k + Hout⋅Wout⋅M⋅N) / Hout⋅Wout⋅M⋅N⋅k⋅k=1/N+1/k2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为输出通道数 N 通常很大（比如 128, 256），所以 1/N 趋近于 0。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果卷积核 k=3，那么计算量大约就是标准卷积的 1/9 左右。</t>
+  </si>
+  <si>
+    <t>适合自己（理解）的depthwise convolution, DW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 深度卷积 (Depthwise Convolution, DW)</t>
+  </si>
+  <si>
+    <t>正如你所说，DW 的核心是一个卷积核只管一个通道。</t>
+  </si>
+  <si>
+    <t>ii. 滑动生成输出尺寸为 Hout×Wout 的特征图。</t>
+  </si>
+  <si>
+    <t>iii. 这个过程在 M 个通道上独立重复。</t>
+  </si>
+  <si>
+    <t>卷积核大小：(k×k×1) —— 这里的 1 强调了它不跨通道。</t>
+  </si>
+  <si>
+    <t>计算逻辑：</t>
+  </si>
+  <si>
+    <t>i. 单个 (k×k) 的核在 一个 通道平面上滑动。</t>
+  </si>
+  <si>
+    <t>计算量公式： k×k×Hout×Wout×M</t>
+  </si>
+  <si>
+    <t>这个顺序完美体现了：单核尺寸 × 滑动次数 × 通道数。</t>
+  </si>
+  <si>
+    <t>2. 逐点卷积 (Pointwise Convolution, PW)</t>
+  </si>
+  <si>
+    <t>在 DW 提取完空间特征后，PW 负责把 M 个通道的信息融合到 N 个通道中。</t>
+  </si>
+  <si>
+    <t>卷积核大小：(1×1×M) —— 这里的 M 是为了融合所有通道。</t>
+  </si>
+  <si>
+    <t>i. 单个 (1×1×M) 的核在空间上滑过 Hout×Wout 个位置。</t>
+  </si>
+  <si>
+    <t>ii. 为了得到 N 个输出通道，需要 N 个这样的核。</t>
+  </si>
+  <si>
+    <t>计算量公式： 1×1×M×Hout×Wout×N</t>
+  </si>
+  <si>
+    <t>通常简写为：M×N×Hout×Wout。</t>
+  </si>
+  <si>
+    <t>卷积类型</t>
+  </si>
+  <si>
+    <t>物理含义拆解</t>
+  </si>
+  <si>
+    <t>标准卷积</t>
+  </si>
+  <si>
+    <t>(核体积) × (空间滑动) × (输出通道)</t>
+  </si>
+  <si>
+    <t>MobileNet (DW)</t>
+  </si>
+  <si>
+    <t>(单层核) × (空间滑动) × (输入通道)</t>
+  </si>
+  <si>
+    <t>MobileNet (PW)</t>
+  </si>
+  <si>
+    <t>(1x1体积) × (输出通道) × (空间滑动)</t>
+  </si>
+  <si>
+    <t>MobileNet V2 Full Architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNet V2在V1的基础上进行了重大的改进， 核心引入了“倒残差结构” inverted residuals 和 “线性瓶颈” Linear Bottlenecks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expansion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool, FC, SoftMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depthwise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residual Connection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n * n * 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 * 1 * 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n * n * 18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pointwise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">输入特征图： </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是上一层传来的数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常通道数量较少的特征图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1 卷积：将特征图的通道数据“扩展“或”升维“，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通常是通常的6倍。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BN + ReLU: 进行批归一化和激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3 卷积：在高维空间中进行逐通道的卷积，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效地提取空间特征。</t>
+  </si>
+  <si>
+    <t>1. BN + ReLU6：再次进行归一化和激活。</t>
+  </si>
+  <si>
+    <t>1x1 卷积：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将通道数“投影”或“降维”回原始的“窄”状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>，形成瓶颈。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BN：进行最后的批归一化</t>
+  </si>
+  <si>
+    <t>步骤 4: 残差连接 (Residual Add)</t>
+  </si>
+  <si>
+    <t>1. 将处理后的输出与最开始的输入特征图进行逐元素的相加（仅在输入输出尺寸相同时）。这构成了“残差连接”，允许梯度更好地回传，避免网络退化。</t>
+  </si>
+  <si>
+    <t>步骤 1: 扩展 (Expansion)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤 2: 深度卷积 (Depthwise Conv)</t>
+  </si>
+  <si>
+    <t>步骤 3: 投影 (Projection) / 线性瓶颈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>块编号</t>
+  </si>
+  <si>
+    <t>输入尺寸</t>
+  </si>
+  <si>
+    <t>算子 (Operator)</t>
+  </si>
+  <si>
+    <t>扩展倍数 (t)</t>
+  </si>
+  <si>
+    <t>输出通道 (c)</t>
+  </si>
+  <si>
+    <t>步长 (s)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>224x224x3</t>
+  </si>
+  <si>
+    <t>标准 Conv2d</t>
+  </si>
+  <si>
+    <t>起始卷积层</t>
+  </si>
+  <si>
+    <t>112x112x32</t>
+  </si>
+  <si>
+    <t>Bottleneck</t>
+  </si>
+  <si>
+    <t>112x112x16</t>
+  </si>
+  <si>
+    <t>下采样</t>
+  </si>
+  <si>
+    <t>56x56x24</t>
+  </si>
+  <si>
+    <t>28x28x32</t>
+  </si>
+  <si>
+    <t>14x14x64</t>
+  </si>
+  <si>
+    <t>14x14x96</t>
+  </si>
+  <si>
+    <t>7x7x160</t>
+  </si>
+  <si>
+    <t>7x7x320</t>
+  </si>
+  <si>
+    <t>1x1 Conv2d</t>
+  </si>
+  <si>
+    <t>收尾卷积层</t>
+  </si>
+  <si>
+    <t>7x7x1280</t>
+  </si>
+  <si>
+    <t>Avg Pool 7x7</t>
+  </si>
+  <si>
+    <t>全局平均池化</t>
+  </si>
+  <si>
+    <t>1x1x1280</t>
+  </si>
+  <si>
+    <t>k (类别数)</t>
+  </si>
+  <si>
+    <t>分类器层 (FC)</t>
+  </si>
+  <si>
+    <t>Bottleneck</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17times</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2335,7 +2662,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2527,16 +2854,118 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HarmonyOS Sans SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010409"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EAEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2624,6 +3053,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2636,7 +3074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2718,6 +3156,60 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -2735,6 +3227,875 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="组合 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC561B64-3A0C-9ADE-3BB0-5DCEE191DFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14878050" y="1933575"/>
+          <a:ext cx="1000125" cy="1190625"/>
+          <a:chOff x="7620000" y="1695450"/>
+          <a:chExt cx="1000125" cy="1190625"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="矩形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B61A2A-3B3B-481D-BB56-BDEACFEDDF9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7772400" y="1695450"/>
+            <a:ext cx="847725" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="矩形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53CC0BCA-6857-47F2-ABB1-3677ACD0CD47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7677150" y="1781175"/>
+            <a:ext cx="847725" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="矩形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCCB58D-32AF-18D6-0735-5D16072F6107}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7620000" y="1905000"/>
+            <a:ext cx="847725" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50D8253-D737-92FE-E1FE-B375AC5A3F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2200275"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3460456-726D-456B-91FC-47614DB9958C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="2238375"/>
+          <a:ext cx="828675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="立方体 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54918524-1991-4FC8-809C-3280F997B37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="2133600"/>
+          <a:ext cx="380999" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 78658"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="立方体 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90777D36-19D2-4DB4-85F0-78BCDC809FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="1981201"/>
+          <a:ext cx="571499" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 78658"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66274DF4-1825-44CD-9AA1-F7E1E8224C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11268075" y="2276475"/>
+          <a:ext cx="2400300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6772137B-0AD5-45E8-80ED-31419562838E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="2209800"/>
+          <a:ext cx="1438275" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="连接符: 肘形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F79D64B-F122-C702-C68A-9BDFA5ABC4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5305425" y="847725"/>
+          <a:ext cx="3095625" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2923"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="连接符: 肘形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF9F477-8343-4798-AA2D-379CBE7E741D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="857250"/>
+          <a:ext cx="3257550" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100585"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="组合 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48006D5-6B0B-43EE-BB08-3CE048326F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314577" y="1476374"/>
+          <a:ext cx="3457574" cy="1876425"/>
+          <a:chOff x="7620000" y="1681802"/>
+          <a:chExt cx="986023" cy="1204273"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="矩形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DE9DB7-53E0-1239-A66E-ADF510BEF343}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7758298" y="1681802"/>
+            <a:ext cx="847725" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="矩形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A47799-5579-85E3-7318-EC002BC7D6DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7677150" y="1781175"/>
+            <a:ext cx="847725" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="矩形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E3BFFD-2104-F052-A305-D56C385465BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7620000" y="1905000"/>
+            <a:ext cx="847725" cy="981075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7E4D87-AFE4-5F4B-202E-55B7C3FC0F76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="600075"/>
+          <a:ext cx="10001250" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3034,10 +4395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B4D18A-B9B9-49DC-A5DA-C958C9AF2D39}">
-  <dimension ref="F1:V132"/>
+  <dimension ref="F1:V173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -3045,11 +4406,11 @@
     <col min="1" max="1" width="9.06640625" style="2"/>
     <col min="2" max="4" width="3.06640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.06640625" style="2"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.1328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.46484375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.53125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.06640625" style="2" bestFit="1" customWidth="1"/>
@@ -4100,52 +5461,55 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F113" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="6:13" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="114" spans="6:9" ht="15.75" x14ac:dyDescent="0.4">
       <c r="F114" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F115" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="6:9" x14ac:dyDescent="0.4">
       <c r="G116" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="6:9" x14ac:dyDescent="0.4">
       <c r="G117" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="6:9" x14ac:dyDescent="0.4">
       <c r="G118" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F119" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="6:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="6:9" x14ac:dyDescent="0.4">
       <c r="G120" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="F124" s="2" t="s">
+    <row r="124" spans="6:9" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="F124" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="125" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F125" s="26" t="s">
         <v>103</v>
       </c>
@@ -4153,36 +5517,987 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="126" spans="6:9" ht="15.4" x14ac:dyDescent="0.4">
       <c r="G126" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="127" spans="6:9" ht="15.4" x14ac:dyDescent="0.4">
       <c r="F127" s="24"/>
       <c r="G127" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M127" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="6:9" ht="15.4" x14ac:dyDescent="0.4">
       <c r="F128" s="24"/>
       <c r="G128" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="6:6" ht="15.4" x14ac:dyDescent="0.4">
-      <c r="F129" s="24"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F132" s="2" t="s">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G130" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G131" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H132" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H133" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H134" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H135" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="F136" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F137" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8" s="27" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G138" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G139" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G140" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F142" s="29" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="144" spans="6:8" s="30" customFormat="1" ht="12.4" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F145" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F146" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G147" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G148" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G149" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H150" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H151" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H152" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G153" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G154" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F155" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G156" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G157" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G158" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H159" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="H160" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G161" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="G162" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F165" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="6:13" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="F170" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L170" s="31"/>
+      <c r="M170" s="31"/>
+    </row>
+    <row r="171" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="L171" s="31"/>
+      <c r="M171" s="32"/>
+    </row>
+    <row r="172" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="L172" s="33"/>
+      <c r="M172" s="34"/>
+    </row>
+    <row r="173" spans="6:13" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="L173" s="31"/>
+      <c r="M173" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F38A1-C4AC-4BD3-899D-DDDC5242902E}">
+  <dimension ref="C3:Z63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="12.9296875" customWidth="1"/>
+    <col min="4" max="4" width="4.1328125" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.53125" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" customWidth="1"/>
+    <col min="10" max="10" width="27.86328125" customWidth="1"/>
+    <col min="11" max="11" width="12.9296875" customWidth="1"/>
+    <col min="12" max="12" width="20.796875" customWidth="1"/>
+    <col min="14" max="18" width="4.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:26" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="C3" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="O5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="3:26" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="3:26" ht="9.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="3:26" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="Z13" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="K19" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="J20" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="U20" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="V20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" s="42" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="E23" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="V23" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="X23" s="42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="D28" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="V28" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" ht="15" x14ac:dyDescent="0.4">
+      <c r="C29" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" t="s">
+        <v>163</v>
+      </c>
+      <c r="V29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" t="s">
+        <v>161</v>
+      </c>
+      <c r="O30" t="s">
+        <v>164</v>
+      </c>
+      <c r="V30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>162</v>
+      </c>
+      <c r="V31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="O33" t="s">
+        <v>165</v>
+      </c>
+      <c r="V33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="V39" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.4">
+      <c r="V40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E42" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43" s="10">
+        <v>32</v>
+      </c>
+      <c r="J43" s="10">
+        <v>2</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10">
+        <v>16</v>
+      </c>
+      <c r="J44" s="10">
+        <v>1</v>
+      </c>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E45" s="10">
+        <v>2</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="10">
+        <v>6</v>
+      </c>
+      <c r="I45" s="10">
+        <v>24</v>
+      </c>
+      <c r="J45" s="10">
+        <v>2</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E46" s="10">
+        <v>3</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="10">
+        <v>6</v>
+      </c>
+      <c r="I46" s="10">
+        <v>24</v>
+      </c>
+      <c r="J46" s="10">
+        <v>1</v>
+      </c>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E47" s="10">
+        <v>4</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="10">
+        <v>6</v>
+      </c>
+      <c r="I47" s="10">
+        <v>32</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="5:22" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E48" s="10">
+        <v>5</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="10">
+        <v>6</v>
+      </c>
+      <c r="I48" s="10">
+        <v>32</v>
+      </c>
+      <c r="J48" s="10">
+        <v>1</v>
+      </c>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E49" s="10">
+        <v>6</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="10">
+        <v>6</v>
+      </c>
+      <c r="I49" s="10">
+        <v>32</v>
+      </c>
+      <c r="J49" s="10">
+        <v>1</v>
+      </c>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E50" s="10">
+        <v>7</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" s="10">
+        <v>6</v>
+      </c>
+      <c r="I50" s="10">
+        <v>64</v>
+      </c>
+      <c r="J50" s="10">
+        <v>2</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E51" s="10">
+        <v>8</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="10">
+        <v>6</v>
+      </c>
+      <c r="I51" s="10">
+        <v>64</v>
+      </c>
+      <c r="J51" s="10">
+        <v>1</v>
+      </c>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E52" s="10">
+        <v>9</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="10">
+        <v>6</v>
+      </c>
+      <c r="I52" s="10">
+        <v>64</v>
+      </c>
+      <c r="J52" s="10">
+        <v>1</v>
+      </c>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E53" s="10">
+        <v>10</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="10">
+        <v>6</v>
+      </c>
+      <c r="I53" s="10">
+        <v>64</v>
+      </c>
+      <c r="J53" s="10">
+        <v>1</v>
+      </c>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E54" s="10">
+        <v>11</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="10">
+        <v>6</v>
+      </c>
+      <c r="I54" s="10">
+        <v>96</v>
+      </c>
+      <c r="J54" s="10">
+        <v>1</v>
+      </c>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E55" s="10">
+        <v>12</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="10">
+        <v>6</v>
+      </c>
+      <c r="I55" s="10">
+        <v>96</v>
+      </c>
+      <c r="J55" s="10">
+        <v>1</v>
+      </c>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E56" s="10">
+        <v>13</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="10">
+        <v>6</v>
+      </c>
+      <c r="I56" s="10">
+        <v>96</v>
+      </c>
+      <c r="J56" s="10">
+        <v>1</v>
+      </c>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E57" s="10">
+        <v>14</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" s="10">
+        <v>6</v>
+      </c>
+      <c r="I57" s="10">
+        <v>160</v>
+      </c>
+      <c r="J57" s="10">
+        <v>2</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E58" s="10">
+        <v>15</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="10">
+        <v>6</v>
+      </c>
+      <c r="I58" s="10">
+        <v>160</v>
+      </c>
+      <c r="J58" s="10">
+        <v>1</v>
+      </c>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E59" s="10">
+        <v>16</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="10">
+        <v>6</v>
+      </c>
+      <c r="I59" s="10">
+        <v>160</v>
+      </c>
+      <c r="J59" s="10">
+        <v>1</v>
+      </c>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E60" s="10">
+        <v>17</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="10">
+        <v>6</v>
+      </c>
+      <c r="I60" s="10">
+        <v>320</v>
+      </c>
+      <c r="J60" s="10">
+        <v>1</v>
+      </c>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E61" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1280</v>
+      </c>
+      <c r="J61" s="10">
+        <v>1</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E62" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I62" s="10">
+        <v>1280</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" ht="19.149999999999999" x14ac:dyDescent="0.4">
+      <c r="E63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chapter04-Convolutional-Neural-Networks/DeepConvolutional_Models-CaseStudies/cases studies.xlsx
+++ b/Chapter04-Convolutional-Neural-Networks/DeepConvolutional_Models-CaseStudies/cases studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI-learning\Deep-learning\Chapter04-Convolutional-Neural-Networks\DeepConvolutional_Models-CaseStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF426F9-837E-4E81-8528-67C36F046CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4733A8-90F5-4E07-952E-EF6A03A7ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15870" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{CCDBED70-31EF-43E7-BAA9-99EBC844BBE9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{CCDBED70-31EF-43E7-BAA9-99EBC844BBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3195,10 +3195,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3257,8 +3257,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14878050" y="1933575"/>
-          <a:ext cx="1000125" cy="1190625"/>
+          <a:off x="14868525" y="1885950"/>
+          <a:ext cx="1000125" cy="1162050"/>
           <a:chOff x="7620000" y="1695450"/>
           <a:chExt cx="1000125" cy="1190625"/>
         </a:xfrm>
@@ -3855,10 +3855,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95252</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -3879,8 +3879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2314577" y="1476374"/>
-          <a:ext cx="3457574" cy="1876425"/>
+          <a:off x="3400425" y="1414463"/>
+          <a:ext cx="2366964" cy="1852611"/>
           <a:chOff x="7620000" y="1681802"/>
           <a:chExt cx="986023" cy="1204273"/>
         </a:xfrm>
@@ -5747,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F38A1-C4AC-4BD3-899D-DDDC5242902E}">
   <dimension ref="C3:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
